--- a/bin/Marks.xlsx
+++ b/bin/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-2-RicoIglesiasMateo-UO277172\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\alg-2-RicoIglesiasMateo-UO277172\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB9164-907D-452B-BC74-229287550470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE756FD-E463-438C-92E5-E2312C205C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Remember to use the template (it is in the virtual campus)</t>
+  </si>
+  <si>
+    <t>Division1		 a=1; b=3; k=1; O(n). Substraction4 waste of stack is O(n)</t>
   </si>
 </sst>
 </file>
@@ -1013,34 +1016,34 @@
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C14"/>
+      <selection activeCell="D7" sqref="D7:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" customWidth="1"/>
-    <col min="7" max="7" width="30.26953125" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" customWidth="1"/>
+    <col min="3" max="3" width="26.53125" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" customWidth="1"/>
+    <col min="5" max="5" width="27.19921875" customWidth="1"/>
+    <col min="6" max="6" width="27.73046875" customWidth="1"/>
+    <col min="7" max="7" width="30.265625" customWidth="1"/>
+    <col min="8" max="8" width="27.265625" customWidth="1"/>
+    <col min="9" max="9" width="23.796875" customWidth="1"/>
+    <col min="10" max="10" width="20.265625" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" customWidth="1"/>
+    <col min="12" max="12" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="14" t="s">
         <v>15</v>
@@ -1053,7 +1056,7 @@
       <c r="H3" s="14"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="7">
         <v>0.1</v>
       </c>
@@ -1077,10 +1080,10 @@
       </c>
       <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.9874999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1122,7 +1125,9 @@
       <c r="C6" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>9.25</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1130,24 +1135,26 @@
       <c r="I6" s="12"/>
       <c r="J6" s="10">
         <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.9874999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1157,7 +1164,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1167,7 +1174,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1177,7 +1184,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1187,7 +1194,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1197,7 +1204,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1207,7 +1214,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1217,146 +1224,146 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:H3"/>

--- a/bin/Marks.xlsx
+++ b/bin/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\alg-2-RicoIglesiasMateo-UO277172\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE756FD-E463-438C-92E5-E2312C205C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA348D12-E240-4082-A543-9CD5FEF753CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Division1		 a=1; b=3; k=1; O(n). Substraction4 waste of stack is O(n)</t>
+  </si>
+  <si>
+    <t>The complexity would be O(countries + borders*colors). You can also consider the number of colors constant if they never change, so the complexity would be just O(countries + borders).</t>
+  </si>
+  <si>
+    <t>Very good. Please, use PDF version of the documents. It would make more sense to indicate the specific examples in the Test class, not in the implementation one.</t>
+  </si>
+  <si>
+    <t>Bactracking has a O(3^n) complexity. You got some weird values sometimes (backrtacking pruning (with balancing condition) cannot be better than backtracking without pruning in any case</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1025,7 @@
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1080,7 +1089,7 @@
       </c>
       <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
-        <v>2.9874999999999998</v>
+        <v>7.6374999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1128,14 +1137,20 @@
       <c r="D6" s="9">
         <v>9.25</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>9</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="12"/>
       <c r="J6" s="10">
         <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
-        <v>2.9874999999999998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1148,9 +1163,15 @@
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
